--- a/Transceiver/Receiver/Superhet_Receiver.xlsx
+++ b/Transceiver/Receiver/Superhet_Receiver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5460" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>Mixers</t>
   </si>
@@ -326,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +361,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,350 +801,414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="7">
+      <c r="C2" s="2"/>
+      <c r="D2" s="7">
         <v>1.2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>-1.2</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>1.8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>-1.8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.56100000000000005</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>3.2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>19.5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>0.4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1.8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>-1.8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>0.56100000000000005</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>10.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>2.4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>2.5099999999999998</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1.9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>-1.9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>1.18</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>3.2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>19.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>0.4</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>1.9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>-1.9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1.18</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1">
-        <v>11</v>
-      </c>
       <c r="D10" s="1">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.6</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2.5099999999999998</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>-6</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>2.34</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>3.2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>19.5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>0.4</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
         <v>4.7</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F14" s="3">
         <v>14.09</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="1">
-        <v>47.72</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
+        <v>48.69</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F15" s="3">
         <v>7.29</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <f>SUM(D3:D14)</f>
-        <v>52.800000000000004</v>
-      </c>
-      <c r="E15" s="3">
-        <f>SUM(E3:E14)</f>
-        <v>33.421999999999997</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f>SUM(E2:E15)</f>
+        <v>71.100000000000009</v>
+      </c>
+      <c r="F16" s="3">
+        <f>SUM(F3:F15)</f>
+        <v>33.822000000000003</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="F13" r:id="rId4"/>
-    <hyperlink ref="B13" r:id="rId5"/>
-    <hyperlink ref="F11" r:id="rId6"/>
-    <hyperlink ref="B3" r:id="rId7"/>
-    <hyperlink ref="B5" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="B4" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="B9" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="G14" r:id="rId4"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="C9" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
